--- a/output/fit_clients/fit_round_493.xlsx
+++ b/output/fit_clients/fit_round_493.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1868984895.463763</v>
+        <v>2168328808.447758</v>
       </c>
       <c r="F2" t="n">
-        <v>0.108349620827073</v>
+        <v>0.1129169872184512</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03848880033950187</v>
+        <v>0.03874195399945169</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>934492425.7802836</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2159523774.97888</v>
+        <v>2338575787.961426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1641714707807264</v>
+        <v>0.1810890096969311</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03730649735291676</v>
+        <v>0.04388885464443642</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1079761952.283532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3263316161.707294</v>
+        <v>4703597190.344912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1193713245407604</v>
+        <v>0.125409023112316</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03603242885888717</v>
+        <v>0.03407068155882811</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>178</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1631658042.878717</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3865505084.262162</v>
+        <v>3456491205.676216</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07943127961208982</v>
+        <v>0.1007327515512257</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05004131826481563</v>
+        <v>0.04102398769995762</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>183</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1932752554.717518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2060031827.267367</v>
+        <v>2260824159.809605</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09064235292659956</v>
+        <v>0.1434295923319049</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05008281858385809</v>
+        <v>0.05304909772045627</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1030015936.752538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2255394338.366973</v>
+        <v>2062929906.899338</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08497943766309524</v>
+        <v>0.07721597545641251</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04072039385897258</v>
+        <v>0.04410202908552539</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>156</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1127697205.784627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3060696627.728217</v>
+        <v>3614662816.793215</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1566536510827587</v>
+        <v>0.2094195010324569</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02951978422948693</v>
+        <v>0.02570477047354367</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>158</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1530348377.604794</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1977800773.015949</v>
+        <v>2240619550.490784</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1752584902732288</v>
+        <v>0.1568300082414519</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03601450117123734</v>
+        <v>0.03246606203659901</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>988900416.217458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4482562415.562211</v>
+        <v>4055680978.372945</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1883663144612385</v>
+        <v>0.1950957228622035</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04977751199855776</v>
+        <v>0.04540115331399124</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>207</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2241281267.055057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3241279753.986733</v>
+        <v>4085655363.608913</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1274008875120614</v>
+        <v>0.1177616869576126</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04849007469017692</v>
+        <v>0.04303044015971239</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>203</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1620639836.75751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3083787932.947982</v>
+        <v>2038484638.333483</v>
       </c>
       <c r="F12" t="n">
-        <v>0.123355343997678</v>
+        <v>0.1688200852605983</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04547524790036948</v>
+        <v>0.05229435480123319</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>167</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1541893992.187015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4258582314.872556</v>
+        <v>5176162970.284068</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07620673082492267</v>
+        <v>0.09091824655311385</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01967692117230629</v>
+        <v>0.03037292586712296</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>166</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2129291199.253763</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3053627183.680485</v>
+        <v>2531870601.305787</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1551989993190649</v>
+        <v>0.1804483988967635</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03065972626749645</v>
+        <v>0.03651612430968953</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>158</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1526813622.418829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1329059290.97932</v>
+        <v>1488673368.712745</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1038024824230995</v>
+        <v>0.06828960103577039</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04941620692398139</v>
+        <v>0.04430926158706312</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>664529692.2641939</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2685635541.308132</v>
+        <v>1780327876.692387</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1047606943340079</v>
+        <v>0.08625460764682881</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04089519911311106</v>
+        <v>0.03226309920267378</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>101</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1342817784.904321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5187307296.196817</v>
+        <v>4966538127.812236</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1357855047741649</v>
+        <v>0.1083543628580931</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04267425051276023</v>
+        <v>0.05221484986185817</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>147</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2593653624.027652</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3100137192.595093</v>
+        <v>2708152916.306812</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1473350559964362</v>
+        <v>0.1475349580441725</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03383191437413279</v>
+        <v>0.02262592922540313</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>161</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1550068619.305385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1102104455.72523</v>
+        <v>1088808484.851458</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1706914914901446</v>
+        <v>0.1470432785352619</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01828897441917621</v>
+        <v>0.01697495164540652</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>551052282.0142403</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2077144734.672906</v>
+        <v>2653990452.83222</v>
       </c>
       <c r="F20" t="n">
-        <v>0.102679329946563</v>
+        <v>0.1031509278868836</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02790960471839634</v>
+        <v>0.02800709378029869</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>69</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1038572385.494417</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2278213383.311957</v>
+        <v>2554750294.054781</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08789257710726417</v>
+        <v>0.0944474127067868</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0434467107884805</v>
+        <v>0.03932681614725028</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1139106701.018504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2499980437.54729</v>
+        <v>3901450424.58378</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1112013800178606</v>
+        <v>0.1137856977071328</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03644127986277261</v>
+        <v>0.03696295828805399</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1249990310.270305</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1194303710.4321</v>
+        <v>971621568.1447335</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1862213138593167</v>
+        <v>0.1258896854625212</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04871147663552663</v>
+        <v>0.03832902048946524</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>597151892.6767497</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3492936882.613214</v>
+        <v>2844084320.575141</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1195847061179049</v>
+        <v>0.1482670442444432</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03537521608061713</v>
+        <v>0.03483921011444709</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>145</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1746468443.42368</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>956236102.3565146</v>
+        <v>1076216421.2966</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0991122164940534</v>
+        <v>0.09600571224555748</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0190938990077678</v>
+        <v>0.02640040970866897</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>478118125.2581664</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1285884356.634878</v>
+        <v>1307503262.321754</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1103542478142016</v>
+        <v>0.1031593682304296</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02969759339791236</v>
+        <v>0.03019673839585486</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>642942220.4000224</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3917814129.056779</v>
+        <v>4558884467.637786</v>
       </c>
       <c r="F27" t="n">
-        <v>0.132149122437144</v>
+        <v>0.1333433954860831</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02463029206216929</v>
+        <v>0.01691220910818655</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1958907078.773507</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3613357291.520607</v>
+        <v>2451214274.488883</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1281233889060015</v>
+        <v>0.1121246545207296</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04879859615627699</v>
+        <v>0.04237710620423071</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>158</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1806678710.255317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5209306938.579806</v>
+        <v>4041251996.346235</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1125807225097764</v>
+        <v>0.1470519991936672</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04570913013769007</v>
+        <v>0.02900628391012693</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>218</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2604653402.353801</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1779769973.485196</v>
+        <v>1625624606.949886</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1296978715447974</v>
+        <v>0.1229751430903648</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0380736231977389</v>
+        <v>0.02812496806506242</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>889884999.1410037</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1423566290.396514</v>
+        <v>1311229137.57634</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08539773963400697</v>
+        <v>0.08838820282296911</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0466479418058007</v>
+        <v>0.03513034299430386</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>711783044.0546161</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1377127850.19527</v>
+        <v>1723227565.47863</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1034412621185471</v>
+        <v>0.0908329524740967</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03779626326336567</v>
+        <v>0.0368735108245527</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>688563968.0209869</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2694410607.178717</v>
+        <v>2928928553.83884</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1818951000229657</v>
+        <v>0.1431666394926059</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05375037594961512</v>
+        <v>0.05779296392425273</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>151</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1347205325.288076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1354796891.225849</v>
+        <v>1051586788.783902</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1023058602637719</v>
+        <v>0.07779045904200843</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02316403241483466</v>
+        <v>0.02535092976965854</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>677398425.2873335</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>840814481.9026749</v>
+        <v>953413939.2703309</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09175053902250609</v>
+        <v>0.097369950429172</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03707615133606817</v>
+        <v>0.03698766520091497</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>420407294.4489991</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3105123188.169951</v>
+        <v>2152214249.325237</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1777598999689146</v>
+        <v>0.109861865199177</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0197078960855643</v>
+        <v>0.02826086680220258</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>124</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1552561567.617389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2270491529.4615</v>
+        <v>2478906918.14987</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08965804349768149</v>
+        <v>0.111437190288666</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0266832414821961</v>
+        <v>0.03004084828794508</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>134</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1135245829.227378</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1657879456.621827</v>
+        <v>1461345287.839066</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1068464726244285</v>
+        <v>0.110077082275445</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03629798893259248</v>
+        <v>0.03730892667701875</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>828939755.2893171</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1829548622.23452</v>
+        <v>1362612532.591702</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1862670024053126</v>
+        <v>0.1400619002581616</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02863209470656022</v>
+        <v>0.02008495198568652</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>914774331.5356439</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1126198835.696682</v>
+        <v>1613627962.107152</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1072586887254367</v>
+        <v>0.1607578480769257</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04485246388881498</v>
+        <v>0.05370657291980013</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>563099477.6384099</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2593492765.885935</v>
+        <v>2818430582.790605</v>
       </c>
       <c r="F41" t="n">
-        <v>0.156778893983865</v>
+        <v>0.1559661163075041</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04280520403647087</v>
+        <v>0.04271813527688644</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>120</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1296746399.05573</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3152748744.706892</v>
+        <v>3774960787.917827</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08773312303744076</v>
+        <v>0.1263511928930012</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03298537166772811</v>
+        <v>0.0433146041127595</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>163</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1576374343.354036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3070044047.797585</v>
+        <v>2529526917.60439</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1606503628061301</v>
+        <v>0.1440899118015745</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02248943334105576</v>
+        <v>0.01714067249148612</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>170</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1535022015.258035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2148442713.716992</v>
+        <v>1778296886.800974</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08585033082930647</v>
+        <v>0.06647099186458756</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02649239817468365</v>
+        <v>0.02305716435437502</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1074221492.833572</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2516839516.477722</v>
+        <v>1561871380.711346</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1277153159943019</v>
+        <v>0.1823847124534747</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03661187468095948</v>
+        <v>0.03558194040417418</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1258419801.223671</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3584048497.660977</v>
+        <v>4803853394.307848</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1197713844505415</v>
+        <v>0.1591348288395358</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0483195154554536</v>
+        <v>0.05018229958144902</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>175</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1792024194.556459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3713490860.196815</v>
+        <v>3183656572.247536</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1469464550676853</v>
+        <v>0.1690890962808068</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0593155670087997</v>
+        <v>0.04496797487017873</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>134</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1856745413.000856</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4339880404.843487</v>
+        <v>4585917476.096014</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09109154070763696</v>
+        <v>0.07131449085086346</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03197921958763505</v>
+        <v>0.02413149925199968</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>161</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2169940217.091436</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1384178728.334566</v>
+        <v>1583010108.766712</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1772687542342886</v>
+        <v>0.1364096946634487</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03860643799908553</v>
+        <v>0.03571034598179539</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>692089414.2327789</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2669087017.313464</v>
+        <v>3653064987.098504</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1416336437804732</v>
+        <v>0.1100695710772808</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04642229870617783</v>
+        <v>0.03423280289065041</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>168</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1334543592.041927</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1115567582.535784</v>
+        <v>1233649953.423044</v>
       </c>
       <c r="F51" t="n">
-        <v>0.172956932372221</v>
+        <v>0.1714199176583756</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04827476964851785</v>
+        <v>0.04109996552068357</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>557783856.5264988</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4041679461.09846</v>
+        <v>3924683180.121521</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1153439127464682</v>
+        <v>0.09558575391465235</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0517777032011694</v>
+        <v>0.0574772598037518</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>203</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2020839784.601875</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3559213519.365726</v>
+        <v>2584777434.517725</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1832784927093756</v>
+        <v>0.1261955999353992</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0294003614675824</v>
+        <v>0.02790804382425818</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>143</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1779606753.548389</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4400414300.621767</v>
+        <v>3615437957.303075</v>
       </c>
       <c r="F54" t="n">
-        <v>0.147078340013692</v>
+        <v>0.1176463207850656</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03693121665614758</v>
+        <v>0.05295537380480997</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>160</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2200207245.849721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4244790419.714025</v>
+        <v>4306625012.226213</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1769936814743803</v>
+        <v>0.1577860668226845</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0208799309113947</v>
+        <v>0.02758431966414873</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2122395195.570517</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1436265627.631785</v>
+        <v>1476248691.341413</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1114082195813441</v>
+        <v>0.1596218402649607</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05423299182060476</v>
+        <v>0.05760802836577311</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>718132865.5369617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3972976547.455697</v>
+        <v>2794194755.297325</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1544182722056888</v>
+        <v>0.1467395820403809</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0224140074744276</v>
+        <v>0.01951981351262841</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>157</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1986488359.848804</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1171917170.281329</v>
+        <v>1568787184.674765</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1589537960629415</v>
+        <v>0.1658320930222721</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02566998716628801</v>
+        <v>0.02449650690229077</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>585958646.2461305</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3979012590.94417</v>
+        <v>3709664382.167892</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08688280111369602</v>
+        <v>0.08908167308698854</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03793925760962484</v>
+        <v>0.03931439936654456</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1989506272.459813</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3358435553.841897</v>
+        <v>2289046226.784123</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1279756068573531</v>
+        <v>0.1632978431317464</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02248502268107383</v>
+        <v>0.02705094062969242</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1679217884.892425</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3300970466.180958</v>
+        <v>2509033700.716623</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1714959924203514</v>
+        <v>0.1135734501952858</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02239681281735853</v>
+        <v>0.023063375327829</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>170</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1650485185.198047</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1505202269.792527</v>
+        <v>2021179210.536235</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1496161736221359</v>
+        <v>0.1179674693198962</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04743837896499397</v>
+        <v>0.04380882599894542</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>752601118.7312586</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4138502244.341202</v>
+        <v>5580140984.662004</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07432950840123653</v>
+        <v>0.1031165788618478</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03755442846309198</v>
+        <v>0.03134327784432763</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>140</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2069251178.38543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3858067750.544414</v>
+        <v>4494501591.923203</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1324061098191109</v>
+        <v>0.169275278221501</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02442512450376554</v>
+        <v>0.02370205342835512</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>153</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1929033901.176346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4285883069.145334</v>
+        <v>3965511310.490148</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1243796659568488</v>
+        <v>0.1049038216370537</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03014608444093247</v>
+        <v>0.02779050571955128</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>177</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2142941536.12403</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5046782443.794481</v>
+        <v>4659151954.861144</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1019082628891306</v>
+        <v>0.1253274117897056</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04317614317746269</v>
+        <v>0.04161752688785779</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>147</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2523391251.567359</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2752410893.222457</v>
+        <v>2738375352.947416</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06492279943306024</v>
+        <v>0.07121924266916785</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04180622506398371</v>
+        <v>0.03554804446003348</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>158</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1376205485.829594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4883922015.736091</v>
+        <v>3910761401.360573</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1085248483500996</v>
+        <v>0.1196173282790651</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0470921241058453</v>
+        <v>0.04005626809359758</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>157</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2441961057.24123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1998949851.218684</v>
+        <v>2017972271.252533</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1658341070419077</v>
+        <v>0.1700605904353621</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04022091422512068</v>
+        <v>0.03800762352977692</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>999474930.4285961</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2777780100.07466</v>
+        <v>2775904773.53777</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06538708553207201</v>
+        <v>0.07655618402455036</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03644724801687883</v>
+        <v>0.03324403065881948</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>141</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1388890012.547805</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3786296658.598338</v>
+        <v>3748020551.216136</v>
       </c>
       <c r="F71" t="n">
-        <v>0.176318422947696</v>
+        <v>0.1268202215346517</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0338702647075106</v>
+        <v>0.02514346878161811</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>179</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1893148344.419366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2231310975.402513</v>
+        <v>2255092536.439472</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07980292010292565</v>
+        <v>0.1036751258859722</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05094563609893743</v>
+        <v>0.0357237589717943</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1115655396.759205</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2455147397.195646</v>
+        <v>2948024145.699288</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1054468710780105</v>
+        <v>0.09430676976080138</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04612628179711233</v>
+        <v>0.04928423214544915</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>186</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1227573744.510615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3287340696.539736</v>
+        <v>3374600963.872575</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1274104308076456</v>
+        <v>0.1732309058842264</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02753146064356516</v>
+        <v>0.02793440986801949</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>168</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1643670388.81528</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2005864396.779623</v>
+        <v>2168420980.602962</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1250726819477408</v>
+        <v>0.1099190597001155</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02572568229200467</v>
+        <v>0.02368030296929969</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
         <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1002932162.048123</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4553457850.04075</v>
+        <v>3337618096.809688</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08233554115593264</v>
+        <v>0.0798089013324086</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02355514212895497</v>
+        <v>0.02312943135184583</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2276728932.94246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1839217260.99179</v>
+        <v>2138502021.822686</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1788600442824374</v>
+        <v>0.1434541354332645</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02160902774099693</v>
+        <v>0.02978894133581182</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>919608668.2921003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4232161192.085166</v>
+        <v>3173802354.028592</v>
       </c>
       <c r="F78" t="n">
-        <v>0.10523397554568</v>
+        <v>0.08244492003013325</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04363134497907718</v>
+        <v>0.05618086631293875</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>171</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2116080545.189652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1514520254.872395</v>
+        <v>1679626844.41783</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1609879267667434</v>
+        <v>0.1139499275894639</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03747107136500415</v>
+        <v>0.03255434303970231</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>757260164.2257286</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5206555630.719685</v>
+        <v>4309224342.328431</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09879114598344459</v>
+        <v>0.09531245299963896</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02997982875426733</v>
+        <v>0.0339429389811893</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2603277874.865659</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4847219342.368745</v>
+        <v>5144768657.992025</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1063177773174292</v>
+        <v>0.1127832845253036</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03133985538559586</v>
+        <v>0.031055979855303</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2423609665.881519</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4068723189.144535</v>
+        <v>4600468079.161231</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1382576337690291</v>
+        <v>0.1586433868961607</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02911959263347958</v>
+        <v>0.0252820693211027</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>172</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2034361630.511142</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1959846519.376487</v>
+        <v>1915388459.729003</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1283567194524475</v>
+        <v>0.1224135368749973</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04275284675165285</v>
+        <v>0.03436886505614847</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>979923240.042861</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1754795234.600253</v>
+        <v>1841138249.881174</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1174757906589588</v>
+        <v>0.1120475670349339</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04075248340377012</v>
+        <v>0.05092649920646104</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>877397658.2433171</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3436126597.750487</v>
+        <v>2564307795.856897</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1309131120059674</v>
+        <v>0.1566654484248844</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03595821593403181</v>
+        <v>0.05492686658351626</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>184</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1718063407.22573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2112033790.088513</v>
+        <v>2442861120.029279</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1346687274920926</v>
+        <v>0.157015669958521</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02538095268042516</v>
+        <v>0.02107213849718072</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1056016938.276688</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1028356372.804867</v>
+        <v>1274247953.220898</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1679375265147386</v>
+        <v>0.1668009939095451</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03116749811729535</v>
+        <v>0.0424235096673441</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>514178198.0231248</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2687708341.490555</v>
+        <v>2603630485.045736</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1505682795030787</v>
+        <v>0.1113583630020438</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02622953122428792</v>
+        <v>0.02854900710782409</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>196</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1343854170.344737</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2322365119.954763</v>
+        <v>2211769615.825264</v>
       </c>
       <c r="F89" t="n">
-        <v>0.128406411253137</v>
+        <v>0.1038822943000852</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02588163548649368</v>
+        <v>0.03914534296883331</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>168</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1161182647.775435</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1940927999.660978</v>
+        <v>1840486434.988871</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1304132443370039</v>
+        <v>0.09506616857481082</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04504896301631196</v>
+        <v>0.04744073690913603</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>970464059.2698386</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1804187266.593654</v>
+        <v>2011899672.567815</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1311156593834131</v>
+        <v>0.1815615846404869</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05857024964127187</v>
+        <v>0.05482454894608328</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>902093631.6906512</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2130027071.605688</v>
+        <v>2300909072.522338</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1102607338141165</v>
+        <v>0.0894247274626909</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03288346538247486</v>
+        <v>0.03520125135876999</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>135</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1065013491.803687</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3189556036.011953</v>
+        <v>3780075591.957026</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1333358766888202</v>
+        <v>0.13673728647865</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05472467768548853</v>
+        <v>0.04615714684383453</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1594778071.033829</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2316452274.958508</v>
+        <v>1976837106.197005</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1316179552363707</v>
+        <v>0.1633514821391802</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03265121529065564</v>
+        <v>0.040248309496719</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1158226177.027289</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2745403888.490757</v>
+        <v>2165231564.405142</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09015044164223768</v>
+        <v>0.1208074357597486</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0515125927431902</v>
+        <v>0.04264900424633973</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>119</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1372701962.51955</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1448173649.842372</v>
+        <v>1458003685.043264</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09752326148179813</v>
+        <v>0.1261998326920217</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03794358340458098</v>
+        <v>0.0350904294343606</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>724086870.8182764</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3306100261.93946</v>
+        <v>4810271540.374219</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1290158318057648</v>
+        <v>0.1140929874641282</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02251987142362103</v>
+        <v>0.02535901342387222</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>158</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1653050131.561667</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2670969625.966882</v>
+        <v>2938447975.166241</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0948159516974879</v>
+        <v>0.1287875928708309</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02150493416094527</v>
+        <v>0.02458538061790905</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>137</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1335484775.380911</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2179865616.624166</v>
+        <v>2477490337.672026</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1095911070656427</v>
+        <v>0.1427098800203721</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03362856518592174</v>
+        <v>0.03367184366448954</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1089932734.918482</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4626599610.634197</v>
+        <v>3365616897.473272</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1598053644974296</v>
+        <v>0.1661927375828962</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02741789421202252</v>
+        <v>0.0223888417856757</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>151</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2313299926.024323</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3132538369.608397</v>
+        <v>2381096988.693609</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1467134203895479</v>
+        <v>0.1609437613420705</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05192687265083366</v>
+        <v>0.04471053624392171</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>199</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1566269291.40421</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_493.xlsx
+++ b/output/fit_clients/fit_round_493.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2168328808.447758</v>
+        <v>1797196689.086486</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1129169872184512</v>
+        <v>0.1014348505723586</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03874195399945169</v>
+        <v>0.02875982016576454</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2338575787.961426</v>
+        <v>2648973792.24857</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1810890096969311</v>
+        <v>0.146421024556666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04388885464443642</v>
+        <v>0.03561431184362867</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4703597190.344912</v>
+        <v>3204478487.824872</v>
       </c>
       <c r="F4" t="n">
-        <v>0.125409023112316</v>
+        <v>0.1158528200092431</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03407068155882811</v>
+        <v>0.02453048514559269</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3456491205.676216</v>
+        <v>3747262415.577268</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1007327515512257</v>
+        <v>0.1072120857720361</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04102398769995762</v>
+        <v>0.04175408446337579</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2260824159.809605</v>
+        <v>2372900688.13231</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1434295923319049</v>
+        <v>0.09963853580144061</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05304909772045627</v>
+        <v>0.04498131228968537</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2062929906.899338</v>
+        <v>2661011217.253011</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07721597545641251</v>
+        <v>0.100209311073689</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04410202908552539</v>
+        <v>0.0487302325236116</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3614662816.793215</v>
+        <v>3199044557.577493</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2094195010324569</v>
+        <v>0.2131108882903683</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02570477047354367</v>
+        <v>0.02706947020622257</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2240619550.490784</v>
+        <v>1908216391.082226</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1568300082414519</v>
+        <v>0.1868212043791352</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03246606203659901</v>
+        <v>0.02477754461833784</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4055680978.372945</v>
+        <v>3755010190.822506</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1950957228622035</v>
+        <v>0.196223464343949</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04540115331399124</v>
+        <v>0.04943583400433542</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4085655363.608913</v>
+        <v>2615247568.276454</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1177616869576126</v>
+        <v>0.1632346851857678</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04303044015971239</v>
+        <v>0.04889249144811084</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2038484638.333483</v>
+        <v>2105874242.844931</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1688200852605983</v>
+        <v>0.174267167225391</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05229435480123319</v>
+        <v>0.03763190623034704</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5176162970.284068</v>
+        <v>3652837975.50756</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09091824655311385</v>
+        <v>0.08014371199923763</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03037292586712296</v>
+        <v>0.02949973963924406</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2531870601.305787</v>
+        <v>3767097521.758425</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1804483988967635</v>
+        <v>0.1231777958572684</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03651612430968953</v>
+        <v>0.03553072189518759</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1488673368.712745</v>
+        <v>1389348310.104313</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06828960103577039</v>
+        <v>0.07521314645127279</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04430926158706312</v>
+        <v>0.03541349203880875</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1780327876.692387</v>
+        <v>2647757653.856175</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08625460764682881</v>
+        <v>0.07030943158178427</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03226309920267378</v>
+        <v>0.03547118886351543</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4966538127.812236</v>
+        <v>3708569846.241388</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1083543628580931</v>
+        <v>0.1379889666253927</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05221484986185817</v>
+        <v>0.04712376405343333</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2708152916.306812</v>
+        <v>3987636280.863518</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1475349580441725</v>
+        <v>0.1476909521611067</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02262592922540313</v>
+        <v>0.0324846181380851</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1088808484.851458</v>
+        <v>983192326.1612968</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1470432785352619</v>
+        <v>0.1819191595643964</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01697495164540652</v>
+        <v>0.02504386837473494</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2653990452.83222</v>
+        <v>1885858812.705511</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1031509278868836</v>
+        <v>0.1422642941642862</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02800709378029869</v>
+        <v>0.02887968231378608</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2554750294.054781</v>
+        <v>1850566191.761452</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0944474127067868</v>
+        <v>0.09551673566346865</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03932681614725028</v>
+        <v>0.04373849799554906</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3901450424.58378</v>
+        <v>4023024685.672736</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1137856977071328</v>
+        <v>0.09481335182208313</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03696295828805399</v>
+        <v>0.0515715789390299</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>971621568.1447335</v>
+        <v>1270221116.935519</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1258896854625212</v>
+        <v>0.1353156497564036</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03832902048946524</v>
+        <v>0.03525517720857656</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2844084320.575141</v>
+        <v>3032334568.981504</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1482670442444432</v>
+        <v>0.09214313040280651</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03483921011444709</v>
+        <v>0.03228538771887794</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1076216421.2966</v>
+        <v>1284978250.80086</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09600571224555748</v>
+        <v>0.08111422558475821</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02640040970866897</v>
+        <v>0.0222745254996731</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1307503262.321754</v>
+        <v>945697702.5379174</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1031593682304296</v>
+        <v>0.1133296734307668</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03019673839585486</v>
+        <v>0.03746019570777261</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4558884467.637786</v>
+        <v>4576818628.374644</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1333433954860831</v>
+        <v>0.1218884220809787</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01691220910818655</v>
+        <v>0.02008592898808202</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2451214274.488883</v>
+        <v>3413194432.542926</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1121246545207296</v>
+        <v>0.107630034946715</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04237710620423071</v>
+        <v>0.03362257885531907</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4041251996.346235</v>
+        <v>3682452557.06854</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1470519991936672</v>
+        <v>0.1234736190468625</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02900628391012693</v>
+        <v>0.04337647093293706</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1625624606.949886</v>
+        <v>1767381653.89941</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1229751430903648</v>
+        <v>0.1255033673297325</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02812496806506242</v>
+        <v>0.03408894950331497</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1311229137.57634</v>
+        <v>1343860654.194088</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08838820282296911</v>
+        <v>0.0896652550089061</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03513034299430386</v>
+        <v>0.04373707990378092</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1723227565.47863</v>
+        <v>1288349006.445956</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0908329524740967</v>
+        <v>0.1035258527311815</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0368735108245527</v>
+        <v>0.02843011212506275</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2928928553.83884</v>
+        <v>3066722799.138141</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1431666394926059</v>
+        <v>0.1495759715416412</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05779296392425273</v>
+        <v>0.04929280809795512</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1051586788.783902</v>
+        <v>1530978129.601761</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07779045904200843</v>
+        <v>0.1030231852467019</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02535092976965854</v>
+        <v>0.02152056014986209</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>953413939.2703309</v>
+        <v>1045081905.638443</v>
       </c>
       <c r="F35" t="n">
-        <v>0.097369950429172</v>
+        <v>0.09024808342904475</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03698766520091497</v>
+        <v>0.03101309658054148</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2152214249.325237</v>
+        <v>2139075982.229086</v>
       </c>
       <c r="F36" t="n">
-        <v>0.109861865199177</v>
+        <v>0.1709218519370977</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02826086680220258</v>
+        <v>0.02627785675241978</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2478906918.14987</v>
+        <v>2391081042.182163</v>
       </c>
       <c r="F37" t="n">
-        <v>0.111437190288666</v>
+        <v>0.1101847754061104</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03004084828794508</v>
+        <v>0.04256361624598144</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1461345287.839066</v>
+        <v>1921898403.920471</v>
       </c>
       <c r="F38" t="n">
-        <v>0.110077082275445</v>
+        <v>0.1223473452353643</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03730892667701875</v>
+        <v>0.02657932756887987</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1362612532.591702</v>
+        <v>2094642693.962794</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1400619002581616</v>
+        <v>0.1405909572357529</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02008495198568652</v>
+        <v>0.02615228162540734</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1613627962.107152</v>
+        <v>1362564325.965643</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1607578480769257</v>
+        <v>0.1386204024596007</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05370657291980013</v>
+        <v>0.05999679850117139</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2818430582.790605</v>
+        <v>2035768478.538021</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1559661163075041</v>
+        <v>0.1398317884821329</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04271813527688644</v>
+        <v>0.04545760888442344</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3774960787.917827</v>
+        <v>2905585784.45509</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1263511928930012</v>
+        <v>0.09706779464468875</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0433146041127595</v>
+        <v>0.03533085470004087</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2529526917.60439</v>
+        <v>2804959497.937792</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1440899118015745</v>
+        <v>0.1829788206428713</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01714067249148612</v>
+        <v>0.02340172459466459</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1778296886.800974</v>
+        <v>2023446053.237489</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06647099186458756</v>
+        <v>0.09473196675226828</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02305716435437502</v>
+        <v>0.02233948951606085</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1561871380.711346</v>
+        <v>2446370808.545043</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1823847124534747</v>
+        <v>0.1839293342028838</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03558194040417418</v>
+        <v>0.03448666769416353</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4803853394.307848</v>
+        <v>5027654906.388689</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1591348288395358</v>
+        <v>0.1355813131846973</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05018229958144902</v>
+        <v>0.04551654904933271</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3183656572.247536</v>
+        <v>5043518089.15905</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1690890962808068</v>
+        <v>0.1439797680313795</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04496797487017873</v>
+        <v>0.04836966328495788</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4585917476.096014</v>
+        <v>3390166626.056724</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07131449085086346</v>
+        <v>0.08930818163766945</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02413149925199968</v>
+        <v>0.027219705288966</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1583010108.766712</v>
+        <v>1205523594.23542</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1364096946634487</v>
+        <v>0.1529707509914263</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03571034598179539</v>
+        <v>0.03562313605044948</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3653064987.098504</v>
+        <v>2706142087.375583</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1100695710772808</v>
+        <v>0.1646091624766367</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03423280289065041</v>
+        <v>0.04392977474226389</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1233649953.423044</v>
+        <v>969188033.0340707</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1714199176583756</v>
+        <v>0.1244226614876956</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04109996552068357</v>
+        <v>0.03274579402804311</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3924683180.121521</v>
+        <v>4724605248.717623</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09558575391465235</v>
+        <v>0.08658361158740938</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0574772598037518</v>
+        <v>0.03818064058602333</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2584777434.517725</v>
+        <v>3571659191.829129</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1261955999353992</v>
+        <v>0.1889439053509455</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02790804382425818</v>
+        <v>0.02247314881466462</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3615437957.303075</v>
+        <v>4484404213.208455</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1176463207850656</v>
+        <v>0.1199049196325894</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05295537380480997</v>
+        <v>0.03515613496280414</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4306625012.226213</v>
+        <v>3039741705.173007</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1577860668226845</v>
+        <v>0.1711180750835936</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02758431966414873</v>
+        <v>0.02443568015597576</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1476248691.341413</v>
+        <v>1506219625.880453</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1596218402649607</v>
+        <v>0.1326616487910018</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05760802836577311</v>
+        <v>0.0465975586505467</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2794194755.297325</v>
+        <v>3719572446.04436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1467395820403809</v>
+        <v>0.1639119285867196</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01951981351262841</v>
+        <v>0.01880500597571336</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1568787184.674765</v>
+        <v>1733263405.273208</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1658320930222721</v>
+        <v>0.1574624561663999</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02449650690229077</v>
+        <v>0.03804914314774896</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3709664382.167892</v>
+        <v>4223653598.260831</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08908167308698854</v>
+        <v>0.08117672915715896</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03931439936654456</v>
+        <v>0.03563888621743843</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2289046226.784123</v>
+        <v>3622452104.053231</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1632978431317464</v>
+        <v>0.1449425487470076</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02705094062969242</v>
+        <v>0.02547790182755274</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2509033700.716623</v>
+        <v>2255381537.119097</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1135734501952858</v>
+        <v>0.143681950159747</v>
       </c>
       <c r="G61" t="n">
-        <v>0.023063375327829</v>
+        <v>0.02862349416063615</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2021179210.536235</v>
+        <v>1616132778.976539</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1179674693198962</v>
+        <v>0.1930493423720936</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04380882599894542</v>
+        <v>0.04474196000015553</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5580140984.662004</v>
+        <v>4728857819.029542</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1031165788618478</v>
+        <v>0.08494110435172554</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03134327784432763</v>
+        <v>0.0353510322573511</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4494501591.923203</v>
+        <v>5383944836.741865</v>
       </c>
       <c r="F64" t="n">
-        <v>0.169275278221501</v>
+        <v>0.1427981365748095</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02370205342835512</v>
+        <v>0.02343787910387533</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3965511310.490148</v>
+        <v>4229957710.716383</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1049038216370537</v>
+        <v>0.138451788949115</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02779050571955128</v>
+        <v>0.02381789423351082</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4659151954.861144</v>
+        <v>5371116353.704891</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1253274117897056</v>
+        <v>0.1248765858514846</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04161752688785779</v>
+        <v>0.04348987370916197</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2738375352.947416</v>
+        <v>3183188593.720438</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07121924266916785</v>
+        <v>0.1007773812837084</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03554804446003348</v>
+        <v>0.03389078066183808</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3910761401.360573</v>
+        <v>4704898320.445001</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1196173282790651</v>
+        <v>0.1496849192659858</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04005626809359758</v>
+        <v>0.04511635141245478</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2017972271.252533</v>
+        <v>2057306452.356445</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1700605904353621</v>
+        <v>0.1519657836951773</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03800762352977692</v>
+        <v>0.04496716028573409</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2775904773.53777</v>
+        <v>3468951002.964778</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07655618402455036</v>
+        <v>0.0953933430937078</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03324403065881948</v>
+        <v>0.03669458180851346</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3748020551.216136</v>
+        <v>4067854738.048668</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1268202215346517</v>
+        <v>0.1137668263348463</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02514346878161811</v>
+        <v>0.02563574788076461</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2255092536.439472</v>
+        <v>1744947549.78121</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1036751258859722</v>
+        <v>0.09828198020720343</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0357237589717943</v>
+        <v>0.03428826136285765</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2948024145.699288</v>
+        <v>2418572383.534382</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09430676976080138</v>
+        <v>0.1055213127126173</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04928423214544915</v>
+        <v>0.03506929497510498</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3374600963.872575</v>
+        <v>2583031814.519452</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1732309058842264</v>
+        <v>0.1806677947707495</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02793440986801949</v>
+        <v>0.02588620273980484</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2168420980.602962</v>
+        <v>2342082080.696829</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1099190597001155</v>
+        <v>0.1135251173796289</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02368030296929969</v>
+        <v>0.02953201456095998</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3337618096.809688</v>
+        <v>3960733277.705479</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0798089013324086</v>
+        <v>0.1244262526438481</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02312943135184583</v>
+        <v>0.02151806412169898</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2138502021.822686</v>
+        <v>1470042289.026185</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1434541354332645</v>
+        <v>0.119276934581035</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02978894133581182</v>
+        <v>0.02203056719953174</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3173802354.028592</v>
+        <v>4437042381.04847</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08244492003013325</v>
+        <v>0.1012007352644012</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05618086631293875</v>
+        <v>0.04189477306981027</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1679626844.41783</v>
+        <v>1176112110.87036</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1139499275894639</v>
+        <v>0.1308320490428416</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03255434303970231</v>
+        <v>0.03338281349748795</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4309224342.328431</v>
+        <v>4179511922.397017</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09531245299963896</v>
+        <v>0.07269753764622608</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0339429389811893</v>
+        <v>0.03028338717870408</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5144768657.992025</v>
+        <v>5187884830.591097</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1127832845253036</v>
+        <v>0.1049266097577753</v>
       </c>
       <c r="G81" t="n">
-        <v>0.031055979855303</v>
+        <v>0.02303234121238651</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4600468079.161231</v>
+        <v>4842447944.67662</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1586433868961607</v>
+        <v>0.1906488976053403</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0252820693211027</v>
+        <v>0.01982420900098271</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1915388459.729003</v>
+        <v>2476608036.934601</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1224135368749973</v>
+        <v>0.1136247956224022</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03436886505614847</v>
+        <v>0.04336920706436431</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1841138249.881174</v>
+        <v>1653727604.732769</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1120475670349339</v>
+        <v>0.1182124235220265</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05092649920646104</v>
+        <v>0.04037698925117322</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2564307795.856897</v>
+        <v>3646650083.052704</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1566654484248844</v>
+        <v>0.111296123413884</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05492686658351626</v>
+        <v>0.04015634216196207</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2442861120.029279</v>
+        <v>2433237437.885216</v>
       </c>
       <c r="F86" t="n">
-        <v>0.157015669958521</v>
+        <v>0.1252309452842873</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02107213849718072</v>
+        <v>0.01862012223453977</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1274247953.220898</v>
+        <v>1107536337.855863</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1668009939095451</v>
+        <v>0.1736148632765584</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0424235096673441</v>
+        <v>0.03770178707454184</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2603630485.045736</v>
+        <v>2711787489.782104</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1113583630020438</v>
+        <v>0.1376359049107301</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02854900710782409</v>
+        <v>0.0337206883926056</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2211769615.825264</v>
+        <v>3420580592.99362</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1038822943000852</v>
+        <v>0.1123657814164987</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03914534296883331</v>
+        <v>0.02754153326979776</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1840486434.988871</v>
+        <v>1518172329.813577</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09506616857481082</v>
+        <v>0.09641459293728225</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04744073690913603</v>
+        <v>0.04591291720255476</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2011899672.567815</v>
+        <v>2031783544.374207</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1815615846404869</v>
+        <v>0.1435898769323873</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05482454894608328</v>
+        <v>0.04623196982500538</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2300909072.522338</v>
+        <v>2718562699.659889</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0894247274626909</v>
+        <v>0.07371318374585248</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03520125135876999</v>
+        <v>0.03788421103435837</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3780075591.957026</v>
+        <v>4079630368.891015</v>
       </c>
       <c r="F93" t="n">
-        <v>0.13673728647865</v>
+        <v>0.09607908086905323</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04615714684383453</v>
+        <v>0.04435531079597452</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1976837106.197005</v>
+        <v>1545748964.465623</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1633514821391802</v>
+        <v>0.1610644755983297</v>
       </c>
       <c r="G94" t="n">
-        <v>0.040248309496719</v>
+        <v>0.03210212049388529</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2165231564.405142</v>
+        <v>2360881313.191996</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1208074357597486</v>
+        <v>0.1219608718644974</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04264900424633973</v>
+        <v>0.04419952621057351</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1458003685.043264</v>
+        <v>1673861153.112581</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1261998326920217</v>
+        <v>0.1068419683850497</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0350904294343606</v>
+        <v>0.03272163116813644</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4810271540.374219</v>
+        <v>4167998983.528459</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1140929874641282</v>
+        <v>0.1450654468591732</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02535901342387222</v>
+        <v>0.02835624761480402</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2938447975.166241</v>
+        <v>2506570954.802826</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1287875928708309</v>
+        <v>0.116713033182901</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02458538061790905</v>
+        <v>0.02222757394657281</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2477490337.672026</v>
+        <v>3063411697.023166</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1427098800203721</v>
+        <v>0.1409177201214347</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03367184366448954</v>
+        <v>0.02248079430653463</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3365616897.473272</v>
+        <v>4184456862.391406</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1661927375828962</v>
+        <v>0.1305823331115863</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0223888417856757</v>
+        <v>0.02714037991143031</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2381096988.693609</v>
+        <v>2679945760.274567</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1609437613420705</v>
+        <v>0.1492272338935931</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04471053624392171</v>
+        <v>0.05072786968254507</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_493.xlsx
+++ b/output/fit_clients/fit_round_493.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1797196689.086486</v>
+        <v>2091489326.369778</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1014348505723586</v>
+        <v>0.09058691642319638</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02875982016576454</v>
+        <v>0.04109805738393758</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2648973792.24857</v>
+        <v>2358808191.132093</v>
       </c>
       <c r="F3" t="n">
-        <v>0.146421024556666</v>
+        <v>0.183367666278549</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03561431184362867</v>
+        <v>0.03407448854122358</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3204478487.824872</v>
+        <v>3655567702.998559</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1158528200092431</v>
+        <v>0.1270444303711159</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02453048514559269</v>
+        <v>0.02350583903543969</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>248</v>
+      </c>
+      <c r="J4" t="n">
+        <v>493</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3747262415.577268</v>
+        <v>3618856103.996377</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1072120857720361</v>
+        <v>0.1057609978531425</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04175408446337579</v>
+        <v>0.04393042254936166</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>209</v>
+      </c>
+      <c r="J5" t="n">
+        <v>492</v>
+      </c>
+      <c r="K5" t="n">
+        <v>28.02649343242636</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2372900688.13231</v>
+        <v>1939337174.732578</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09963853580144061</v>
+        <v>0.1280527777637136</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04498131228968537</v>
+        <v>0.04232416720246821</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2661011217.253011</v>
+        <v>2384439698.461809</v>
       </c>
       <c r="F7" t="n">
-        <v>0.100209311073689</v>
+        <v>0.06489611663256613</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0487302325236116</v>
+        <v>0.04461842240150737</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3199044557.577493</v>
+        <v>2692693944.646924</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2131108882903683</v>
+        <v>0.136902454060801</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02706947020622257</v>
+        <v>0.02334530653394414</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>141</v>
+      </c>
+      <c r="J8" t="n">
+        <v>492</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17.79869241959013</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1908216391.082226</v>
+        <v>1966308810.775019</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1868212043791352</v>
+        <v>0.1793452564682937</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02477754461833784</v>
+        <v>0.03355021658016562</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3755010190.822506</v>
+        <v>3952120554.929844</v>
       </c>
       <c r="F10" t="n">
-        <v>0.196223464343949</v>
+        <v>0.1420291497356617</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04943583400433542</v>
+        <v>0.03851889836093513</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>372</v>
+      </c>
+      <c r="J10" t="n">
+        <v>493</v>
+      </c>
+      <c r="K10" t="n">
+        <v>29.19319793493704</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2615247568.276454</v>
+        <v>2608516215.825441</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1632346851857678</v>
+        <v>0.1459369728854853</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04889249144811084</v>
+        <v>0.04623196997489061</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>206</v>
+      </c>
+      <c r="J11" t="n">
+        <v>489</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2105874242.844931</v>
+        <v>2240105519.122795</v>
       </c>
       <c r="F12" t="n">
-        <v>0.174267167225391</v>
+        <v>0.1500262115214768</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03763190623034704</v>
+        <v>0.0370164486045361</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3652837975.50756</v>
+        <v>4645116617.662365</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08014371199923763</v>
+        <v>0.09984623232437027</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02949973963924406</v>
+        <v>0.02404617780388379</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>255</v>
+      </c>
+      <c r="J13" t="n">
+        <v>492</v>
+      </c>
+      <c r="K13" t="n">
+        <v>27.16954426036699</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3767097521.758425</v>
+        <v>3086981575.95544</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1231777958572684</v>
+        <v>0.1429694649840966</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03553072189518759</v>
+        <v>0.04374688189308629</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>116</v>
+      </c>
+      <c r="J14" t="n">
+        <v>490</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1389348310.104313</v>
+        <v>1761915231.296442</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07521314645127279</v>
+        <v>0.07307149580178469</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03541349203880875</v>
+        <v>0.03878513155194916</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2647757653.856175</v>
+        <v>2619545792.198927</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07030943158178427</v>
+        <v>0.09219845421333631</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03547118886351543</v>
+        <v>0.04341638779329885</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3708569846.241388</v>
+        <v>3353944766.270033</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1379889666253927</v>
+        <v>0.1695673304154174</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04712376405343333</v>
+        <v>0.05035040379695869</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>240</v>
+      </c>
+      <c r="J17" t="n">
+        <v>493</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3987636280.863518</v>
+        <v>3253595705.179631</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1476909521611067</v>
+        <v>0.1599144887825405</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0324846181380851</v>
+        <v>0.02225721323150054</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>131</v>
+      </c>
+      <c r="J18" t="n">
+        <v>493</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>983192326.1612968</v>
+        <v>984492859.6951534</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1819191595643964</v>
+        <v>0.1426932456496471</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02504386837473494</v>
+        <v>0.01715705242150795</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1885858812.705511</v>
+        <v>1868083911.903366</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1422642941642862</v>
+        <v>0.1082796304920376</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02887968231378608</v>
+        <v>0.0261291255856701</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1850566191.761452</v>
+        <v>2633314456.717556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09551673566346865</v>
+        <v>0.08741080832048147</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04373849799554906</v>
+        <v>0.03806187653404954</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4023024685.672736</v>
+        <v>3478047494.410567</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09481335182208313</v>
+        <v>0.08812729099921678</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0515715789390299</v>
+        <v>0.05647987649639639</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>145</v>
+      </c>
+      <c r="J22" t="n">
+        <v>493</v>
+      </c>
+      <c r="K22" t="n">
+        <v>31.53393499459681</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1270221116.935519</v>
+        <v>972761528.9984434</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1353156497564036</v>
+        <v>0.1567781140836169</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03525517720857656</v>
+        <v>0.04062487862835034</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3032334568.981504</v>
+        <v>3363556004.085664</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09214313040280651</v>
+        <v>0.09777246489569635</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03228538771887794</v>
+        <v>0.03694860031571465</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>155</v>
+      </c>
+      <c r="J24" t="n">
+        <v>493</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1284978250.80086</v>
+        <v>1469220925.168214</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08111422558475821</v>
+        <v>0.0897217543353508</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0222745254996731</v>
+        <v>0.0187171848727048</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>945697702.5379174</v>
+        <v>1291639317.111632</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1133296734307668</v>
+        <v>0.07849618471492337</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03746019570777261</v>
+        <v>0.02769188479080283</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4576818628.374644</v>
+        <v>3043211237.953712</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1218884220809787</v>
+        <v>0.1344912244051219</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02008592898808202</v>
+        <v>0.02065646195439962</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>220</v>
+      </c>
+      <c r="J27" t="n">
+        <v>491</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3413194432.542926</v>
+        <v>3192636004.08271</v>
       </c>
       <c r="F28" t="n">
-        <v>0.107630034946715</v>
+        <v>0.09920516125596181</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03362257885531907</v>
+        <v>0.04631380021381958</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>122</v>
+      </c>
+      <c r="J28" t="n">
+        <v>491</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1456,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3682452557.06854</v>
+        <v>5562997447.961179</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1234736190468625</v>
+        <v>0.1292622818270378</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04337647093293706</v>
+        <v>0.03212475599409619</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>387</v>
+      </c>
+      <c r="J29" t="n">
+        <v>493</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1767381653.89941</v>
+        <v>2189271572.869727</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1255033673297325</v>
+        <v>0.1034719021948471</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03408894950331497</v>
+        <v>0.02922657214158144</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1343860654.194088</v>
+        <v>1381199680.051319</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0896652550089061</v>
+        <v>0.07534573220008792</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04373707990378092</v>
+        <v>0.04947089224935563</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1288349006.445956</v>
+        <v>1491160772.986932</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1035258527311815</v>
+        <v>0.1160651721527307</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02843011212506275</v>
+        <v>0.02551856241023734</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3066722799.138141</v>
+        <v>3066680940.169655</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1495759715416412</v>
+        <v>0.1361333723703743</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04929280809795512</v>
+        <v>0.05646325099598906</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1530978129.601761</v>
+        <v>1568137678.380618</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1030231852467019</v>
+        <v>0.07992796406364415</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02152056014986209</v>
+        <v>0.02268315672275387</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1045081905.638443</v>
+        <v>1332561398.642947</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09024808342904475</v>
+        <v>0.1175357063585931</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03101309658054148</v>
+        <v>0.03883488043885668</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2139075982.229086</v>
+        <v>2702743902.650146</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1709218519370977</v>
+        <v>0.1710046712468893</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02627785675241978</v>
+        <v>0.02230361846433297</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2391081042.182163</v>
+        <v>2856993072.560548</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1101847754061104</v>
+        <v>0.08596851834303131</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04256361624598144</v>
+        <v>0.03068231052424072</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1921898403.920471</v>
+        <v>1916781536.507035</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1223473452353643</v>
+        <v>0.08464362430939877</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02657932756887987</v>
+        <v>0.03189979154520957</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2094642693.962794</v>
+        <v>1944199510.246347</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1405909572357529</v>
+        <v>0.1692068311004661</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02615228162540734</v>
+        <v>0.03062110401797519</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1362564325.965643</v>
+        <v>1564658551.409588</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1386204024596007</v>
+        <v>0.1181069550026486</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05999679850117139</v>
+        <v>0.05408958789217747</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2035768478.538021</v>
+        <v>2321663126.197287</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1398317884821329</v>
+        <v>0.1334644304874155</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04545760888442344</v>
+        <v>0.03108411743947943</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2905585784.45509</v>
+        <v>3132553914.179255</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09706779464468875</v>
+        <v>0.1200583024863342</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03533085470004087</v>
+        <v>0.03478194754078571</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>210</v>
+      </c>
+      <c r="J42" t="n">
+        <v>487</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2804959497.937792</v>
+        <v>2498459067.356989</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1829788206428713</v>
+        <v>0.1407617170351277</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02340172459466459</v>
+        <v>0.02285406162592468</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2023446053.237489</v>
+        <v>1872918961.188071</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09473196675226828</v>
+        <v>0.08424985184751106</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02233948951606085</v>
+        <v>0.02825525650685443</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2446370808.545043</v>
+        <v>1786478262.299886</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1839293342028838</v>
+        <v>0.1255542818714825</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03448666769416353</v>
+        <v>0.04217242189449119</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5027654906.388689</v>
+        <v>5574970682.756606</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1355813131846973</v>
+        <v>0.1511324823219361</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04551654904933271</v>
+        <v>0.05076266659711719</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>290</v>
+      </c>
+      <c r="J46" t="n">
+        <v>492</v>
+      </c>
+      <c r="K46" t="n">
+        <v>24.94488957300161</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5043518089.15905</v>
+        <v>3487502916.719224</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1439797680313795</v>
+        <v>0.2021353698294271</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04836966328495788</v>
+        <v>0.04668316807219451</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>223</v>
+      </c>
+      <c r="J47" t="n">
+        <v>493</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3390166626.056724</v>
+        <v>3227158763.668797</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08930818163766945</v>
+        <v>0.1083978008073929</v>
       </c>
       <c r="G48" t="n">
-        <v>0.027219705288966</v>
+        <v>0.03722147953911231</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>247</v>
+      </c>
+      <c r="J48" t="n">
+        <v>492</v>
+      </c>
+      <c r="K48" t="n">
+        <v>18.04155467424402</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1205523594.23542</v>
+        <v>1491673244.908153</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1529707509914263</v>
+        <v>0.1419299811734899</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03562313605044948</v>
+        <v>0.04352937099759506</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2706142087.375583</v>
+        <v>2903100931.508151</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1646091624766367</v>
+        <v>0.109161823249206</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04392977474226389</v>
+        <v>0.0341056932337265</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>178</v>
+      </c>
+      <c r="J50" t="n">
+        <v>491</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>969188033.0340707</v>
+        <v>1010642640.662559</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1244226614876956</v>
+        <v>0.1435496118045697</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03274579402804311</v>
+        <v>0.04863570368149967</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4724605248.717623</v>
+        <v>5011289064.543506</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08658361158740938</v>
+        <v>0.1223700692979359</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03818064058602333</v>
+        <v>0.05310085639238943</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>275</v>
+      </c>
+      <c r="J52" t="n">
+        <v>492</v>
+      </c>
+      <c r="K52" t="n">
+        <v>25.22520019754577</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3571659191.829129</v>
+        <v>2705841734.723047</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1889439053509455</v>
+        <v>0.1619794303949127</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02247314881466462</v>
+        <v>0.03500207893505372</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>77</v>
+      </c>
+      <c r="J53" t="n">
+        <v>488</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4484404213.208455</v>
+        <v>4240174536.628243</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1199049196325894</v>
+        <v>0.117443928511748</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03515613496280414</v>
+        <v>0.04015297131387161</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>259</v>
+      </c>
+      <c r="J54" t="n">
+        <v>493</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3039741705.173007</v>
+        <v>3906105295.703367</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1711180750835936</v>
+        <v>0.1836056724803388</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02443568015597576</v>
+        <v>0.02547510449983777</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>243</v>
+      </c>
+      <c r="J55" t="n">
+        <v>493</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1506219625.880453</v>
+        <v>1446540521.83794</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1326616487910018</v>
+        <v>0.1360771574174768</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0465975586505467</v>
+        <v>0.05071584967265201</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2442,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3719572446.04436</v>
+        <v>2913334612.187798</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1639119285867196</v>
+        <v>0.1595113321804432</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01880500597571336</v>
+        <v>0.02346398616422885</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>212</v>
+      </c>
+      <c r="J57" t="n">
+        <v>490</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1733263405.273208</v>
+        <v>1796832293.599505</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1574624561663999</v>
+        <v>0.1327582702660133</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03804914314774896</v>
+        <v>0.02933962275122058</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4223653598.260831</v>
+        <v>4236541120.684003</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08117672915715896</v>
+        <v>0.1066260357191692</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03563888621743843</v>
+        <v>0.03407271084296033</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>242</v>
+      </c>
+      <c r="J59" t="n">
+        <v>492</v>
+      </c>
+      <c r="K59" t="n">
+        <v>24.60387055251113</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3622452104.053231</v>
+        <v>3231657142.171235</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1449425487470076</v>
+        <v>0.1791173251717277</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02547790182755274</v>
+        <v>0.02613128157814376</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>101</v>
+      </c>
+      <c r="J60" t="n">
+        <v>491</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2255381537.119097</v>
+        <v>2294195744.764552</v>
       </c>
       <c r="F61" t="n">
-        <v>0.143681950159747</v>
+        <v>0.1786537321122904</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02862349416063615</v>
+        <v>0.02181251473393658</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1616132778.976539</v>
+        <v>1504286485.803895</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1930493423720936</v>
+        <v>0.1615994049843755</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04474196000015553</v>
+        <v>0.04713473190439234</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2648,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4728857819.029542</v>
+        <v>4410879431.405277</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08494110435172554</v>
+        <v>0.06962952854645202</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0353510322573511</v>
+        <v>0.02889713221568255</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>246</v>
+      </c>
+      <c r="J63" t="n">
+        <v>492</v>
+      </c>
+      <c r="K63" t="n">
+        <v>26.52495914069561</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5383944836.741865</v>
+        <v>3752946136.13791</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1427981365748095</v>
+        <v>0.1698686643823644</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02343787910387533</v>
+        <v>0.03386055568694387</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>245</v>
+      </c>
+      <c r="J64" t="n">
+        <v>493</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4229957710.716383</v>
+        <v>5149852189.709624</v>
       </c>
       <c r="F65" t="n">
-        <v>0.138451788949115</v>
+        <v>0.1449020973855161</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02381789423351082</v>
+        <v>0.02543956562844456</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>344</v>
+      </c>
+      <c r="J65" t="n">
+        <v>493</v>
+      </c>
+      <c r="K65" t="n">
+        <v>28.67959872612872</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5371116353.704891</v>
+        <v>4416856391.438187</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1248765858514846</v>
+        <v>0.09935146777543262</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04348987370916197</v>
+        <v>0.03812055318071907</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>244</v>
+      </c>
+      <c r="J66" t="n">
+        <v>493</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2798,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3183188593.720438</v>
+        <v>3272877541.573406</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1007773812837084</v>
+        <v>0.0934517761591545</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03389078066183808</v>
+        <v>0.05040842804576426</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>493</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2827,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4704898320.445001</v>
+        <v>4781351468.769534</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1496849192659858</v>
+        <v>0.09823659758872633</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04511635141245478</v>
+        <v>0.03369972611776789</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>267</v>
+      </c>
+      <c r="J68" t="n">
+        <v>493</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2057306452.356445</v>
+        <v>1609331610.519929</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1519657836951773</v>
+        <v>0.1160024598398883</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04496716028573409</v>
+        <v>0.0542228870986585</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2903,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3468951002.964778</v>
+        <v>3558231135.972202</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0953933430937078</v>
+        <v>0.09579450192445502</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03669458180851346</v>
+        <v>0.03060494573541475</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>76</v>
+      </c>
+      <c r="J70" t="n">
+        <v>493</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2932,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4067854738.048668</v>
+        <v>3922019438.99781</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1137668263348463</v>
+        <v>0.1837008955078311</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02563574788076461</v>
+        <v>0.02093330013954489</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>331</v>
+      </c>
+      <c r="J71" t="n">
+        <v>492</v>
+      </c>
+      <c r="K71" t="n">
+        <v>26.29079525186624</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2975,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1744947549.78121</v>
+        <v>1830548323.069019</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09828198020720343</v>
+        <v>0.0664598853852177</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03428826136285765</v>
+        <v>0.04181897302036811</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2418572383.534382</v>
+        <v>2888881464.05372</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1055213127126173</v>
+        <v>0.1033878945799779</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03506929497510498</v>
+        <v>0.04300472844215086</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>48</v>
+      </c>
+      <c r="J73" t="n">
+        <v>491</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3039,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2583031814.519452</v>
+        <v>2901924506.569189</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1806677947707495</v>
+        <v>0.173988199197542</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02588620273980484</v>
+        <v>0.02228623340773349</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>144</v>
+      </c>
+      <c r="J74" t="n">
+        <v>485</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3074,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2342082080.696829</v>
+        <v>2351092200.607235</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1135251173796289</v>
+        <v>0.1536883430424513</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02953201456095998</v>
+        <v>0.03181087763573823</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3109,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3960733277.705479</v>
+        <v>3997585842.499365</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1244262526438481</v>
+        <v>0.07855624243861792</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02151806412169898</v>
+        <v>0.02532452088793891</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>237</v>
+      </c>
+      <c r="J76" t="n">
+        <v>492</v>
+      </c>
+      <c r="K76" t="n">
+        <v>27.22763335846045</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3152,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1470042289.026185</v>
+        <v>1556309867.16877</v>
       </c>
       <c r="F77" t="n">
-        <v>0.119276934581035</v>
+        <v>0.1652563251351723</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02203056719953174</v>
+        <v>0.02873534013130135</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3181,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4437042381.04847</v>
+        <v>3581057181.531239</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1012007352644012</v>
+        <v>0.09538554504781845</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04189477306981027</v>
+        <v>0.03660075314253566</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>244</v>
+      </c>
+      <c r="J78" t="n">
+        <v>492</v>
+      </c>
+      <c r="K78" t="n">
+        <v>23.02464179469223</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1176112110.87036</v>
+        <v>1664307960.956501</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1308320490428416</v>
+        <v>0.113388184248232</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03338281349748795</v>
+        <v>0.03643103927748035</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4179511922.397017</v>
+        <v>4765780720.895798</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07269753764622608</v>
+        <v>0.1087476386882576</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03028338717870408</v>
+        <v>0.0300976992646675</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>241</v>
+      </c>
+      <c r="J80" t="n">
+        <v>492</v>
+      </c>
+      <c r="K80" t="n">
+        <v>25.38585922222722</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5187884830.591097</v>
+        <v>5022743251.324819</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1049266097577753</v>
+        <v>0.0871491525400499</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02303234121238651</v>
+        <v>0.03280030828916496</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>231</v>
+      </c>
+      <c r="J81" t="n">
+        <v>492</v>
+      </c>
+      <c r="K81" t="n">
+        <v>26.51684799038098</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4842447944.67662</v>
+        <v>5381884572.408639</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1906488976053403</v>
+        <v>0.2095846222391652</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01982420900098271</v>
+        <v>0.02695976796953773</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>322</v>
+      </c>
+      <c r="J82" t="n">
+        <v>493</v>
+      </c>
+      <c r="K82" t="n">
+        <v>28.21622815842287</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2476608036.934601</v>
+        <v>2279668266.496489</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1136247956224022</v>
+        <v>0.1187721108091688</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04336920706436431</v>
+        <v>0.03700657723991019</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1653727604.732769</v>
+        <v>2571595690.179775</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1182124235220265</v>
+        <v>0.1038439915274775</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04037698925117322</v>
+        <v>0.05166934977632068</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3646650083.052704</v>
+        <v>2411898566.488417</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111296123413884</v>
+        <v>0.1590505255655282</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04015634216196207</v>
+        <v>0.03687022723197828</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2433237437.885216</v>
+        <v>2638348875.594694</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1252309452842873</v>
+        <v>0.1415222708747019</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01862012223453977</v>
+        <v>0.01663002572844542</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1107536337.855863</v>
+        <v>1068001580.739547</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1736148632765584</v>
+        <v>0.1261507663932528</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03770178707454184</v>
+        <v>0.03905594191293753</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2711787489.782104</v>
+        <v>2963347672.375558</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1376359049107301</v>
+        <v>0.1650358114087511</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0337206883926056</v>
+        <v>0.03648692843310678</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>71</v>
+      </c>
+      <c r="J88" t="n">
+        <v>485</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3574,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3420580592.99362</v>
+        <v>2458298885.202048</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1123657814164987</v>
+        <v>0.1496913199572776</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02754153326979776</v>
+        <v>0.03799436146814613</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>31</v>
+      </c>
+      <c r="J89" t="n">
+        <v>493</v>
+      </c>
+      <c r="K89" t="n">
+        <v>28.98892147574055</v>
       </c>
     </row>
     <row r="90">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1518172329.813577</v>
+        <v>1973112970.260539</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09641459293728225</v>
+        <v>0.1348362941457333</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04591291720255476</v>
+        <v>0.04401355348579604</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2031783544.374207</v>
+        <v>1745156183.730183</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1435898769323873</v>
+        <v>0.1403706247989316</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04623196982500538</v>
+        <v>0.05887222213776772</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2718562699.659889</v>
+        <v>2929220484.418364</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07371318374585248</v>
+        <v>0.08935661003521558</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03788421103435837</v>
+        <v>0.04184317698354947</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4079630368.891015</v>
+        <v>3851221775.650267</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09607908086905323</v>
+        <v>0.09808376184566624</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04435531079597452</v>
+        <v>0.04073008110666103</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>236</v>
+      </c>
+      <c r="J93" t="n">
+        <v>493</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1545748964.465623</v>
+        <v>2510291464.568397</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1610644755983297</v>
+        <v>0.1475296131963504</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03210212049388529</v>
+        <v>0.03600515084115604</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2360881313.191996</v>
+        <v>3231430815.900339</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1219608718644974</v>
+        <v>0.09116149681697527</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04419952621057351</v>
+        <v>0.04762568174918296</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1673861153.112581</v>
+        <v>1758708583.598557</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1068419683850497</v>
+        <v>0.09289939730815165</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03272163116813644</v>
+        <v>0.04704412710793579</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4167998983.528459</v>
+        <v>5105097755.145938</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1450654468591732</v>
+        <v>0.1254009957983291</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02835624761480402</v>
+        <v>0.0277736445969696</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>256</v>
+      </c>
+      <c r="J97" t="n">
+        <v>493</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3897,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2506570954.802826</v>
+        <v>3161442281.095629</v>
       </c>
       <c r="F98" t="n">
-        <v>0.116713033182901</v>
+        <v>0.1240510266560479</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02222757394657281</v>
+        <v>0.02749365634597117</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>127</v>
+      </c>
+      <c r="J98" t="n">
+        <v>492</v>
+      </c>
+      <c r="K98" t="n">
+        <v>25.7987082114073</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3063411697.023166</v>
+        <v>2977048541.25971</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1409177201214347</v>
+        <v>0.08950632591808293</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02248079430653463</v>
+        <v>0.02890659725595788</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4184456862.391406</v>
+        <v>3105740249.77432</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1305823331115863</v>
+        <v>0.1799153702968779</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02714037991143031</v>
+        <v>0.02507162822304421</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>230</v>
+      </c>
+      <c r="J100" t="n">
+        <v>492</v>
+      </c>
+      <c r="K100" t="n">
+        <v>17.28853138260571</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2679945760.274567</v>
+        <v>2755723345.199616</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1492272338935931</v>
+        <v>0.1380521690261305</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05072786968254507</v>
+        <v>0.05062087518762096</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
